--- a/attend.xlsx
+++ b/attend.xlsx
@@ -342,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -365,6 +365,16 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
